--- a/resources/BookStoreData.xlsx
+++ b/resources/BookStoreData.xlsx
@@ -4,35 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="10710" windowHeight="3450"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13860" windowHeight="6420" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="RegisteredUsers" sheetId="1" r:id="rId1"/>
-    <sheet name="Genres" sheetId="2" r:id="rId2"/>
-    <sheet name="Books" sheetId="3" r:id="rId3"/>
+    <sheet name="RegisteredUserDetails" sheetId="1" r:id="rId1"/>
+    <sheet name="UserPurchaseDetails" sheetId="2" r:id="rId2"/>
+    <sheet name="Genres" sheetId="3" r:id="rId3"/>
+    <sheet name="Books" sheetId="4" r:id="rId4"/>
+    <sheet name="Subscribed" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <oleSize ref="A1:K9"/>
+  <oleSize ref="A1:N20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
-  <si>
-    <t>firstName</t>
-  </si>
-  <si>
-    <t>emailId</t>
-  </si>
-  <si>
-    <t>phoneNumber</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="31">
   <si>
     <t>saiteja</t>
   </si>
@@ -49,28 +36,89 @@
     <t>Saite548@</t>
   </si>
   <si>
+    <t>subham</t>
+  </si>
+  <si>
+    <t>subham@gmail.com</t>
+  </si>
+  <si>
+    <t>8960462045</t>
+  </si>
+  <si>
     <t>customer</t>
   </si>
   <si>
-    <t>krishna</t>
-  </si>
-  <si>
-    <t>krishna@gmail.com</t>
-  </si>
-  <si>
-    <t>1234567891</t>
-  </si>
-  <si>
-    <t>shubham</t>
-  </si>
-  <si>
-    <t>shubham@gmail.com</t>
+    <t>King@1234</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Biography</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Comic</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Fantasy</t>
+  </si>
+  <si>
+    <t>SteveJobs(Walter IssacSon)</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Becoming(Michelle Obama)</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>Educated(Tara WestOver)</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>A Contract with God</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>The New Age</t>
+  </si>
+  <si>
+    <t>Saga</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>The Hobbit</t>
+  </si>
+  <si>
+    <t>Harry Potter</t>
+  </si>
+  <si>
+    <t>SuperNaturals</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -100,9 +148,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,20 +444,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1" collapsed="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -419,7 +457,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -429,14 +467,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" customFormat="1">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
@@ -446,77 +484,306 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" customFormat="1">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" customFormat="1">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" customFormat="1">
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" customFormat="1">
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" customFormat="1">
-      <c r="C7" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/resources/BookStoreData.xlsx
+++ b/resources/BookStoreData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="48">
   <si>
     <t>saiteja</t>
   </si>
@@ -112,6 +112,57 @@
   </si>
   <si>
     <t>SuperNaturals</t>
+  </si>
+  <si>
+    <t>Keerthana</t>
+  </si>
+  <si>
+    <t>mskeerthu20@gmail.com</t>
+  </si>
+  <si>
+    <t>9597744281</t>
+  </si>
+  <si>
+    <t>Prograd@1</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Sandhya</t>
+  </si>
+  <si>
+    <t>keerthana.sivakumar@faceacademy.in</t>
+  </si>
+  <si>
+    <t>Keerthana@12</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>naveen</t>
+  </si>
+  <si>
+    <t>naveen@gmail.com</t>
+  </si>
+  <si>
+    <t>7598435213</t>
+  </si>
+  <si>
+    <t>Prograd@2</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -484,6 +535,57 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -523,6 +625,136 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -783,6 +1015,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
